--- a/Data/Case2_Market data.xlsx
+++ b/Data/Case2_Market data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marga\OneDrive - Nova SBE\Documents\NOVA IMS\2nd Semester\Business Cases\Cases\Case 2\Case-2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE29E653-F75E-4828-A072-A681ED18BE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6074BCF8-817B-4E9A-9496-67249BDB4A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1025,9 +1025,6 @@
     <t>LCU_EUR</t>
   </si>
   <si>
-    <t>US_Production_Index_Machinery_and_equipment</t>
-  </si>
-  <si>
     <t>World_Production_Index_Machinery_and_equip</t>
   </si>
   <si>
@@ -1089,6 +1086,9 @@
   </si>
   <si>
     <t>China_Producer_Price_Electrical_equip</t>
+  </si>
+  <si>
+    <t>US_Production_Index_Machinery_and_equip</t>
   </si>
 </sst>
 </file>
@@ -34555,10 +34555,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969BFC7C-242E-4CA7-BCFA-63115B812E44}">
-  <dimension ref="A1:AV222"/>
+  <dimension ref="A1:AV220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -34566,7 +34566,7 @@
     <col min="33" max="48" width="14.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:48" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>38</v>
       </c>
@@ -34646,73 +34646,73 @@
         <v>329</v>
       </c>
       <c r="AA1" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB1" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="AV1" s="6" t="s">
-        <v>345</v>
-      </c>
     </row>
-    <row r="2" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>86</v>
       </c>
@@ -34852,7 +34852,7 @@
         <v>85.913200378417969</v>
       </c>
     </row>
-    <row r="3" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>87</v>
       </c>
@@ -34992,7 +34992,7 @@
         <v>97.670814514160156</v>
       </c>
     </row>
-    <row r="4" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>88</v>
       </c>
@@ -35132,7 +35132,7 @@
         <v>87.253982543945313</v>
       </c>
     </row>
-    <row r="5" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>89</v>
       </c>
@@ -35272,7 +35272,7 @@
         <v>84.675552368164063</v>
       </c>
     </row>
-    <row r="6" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>90</v>
       </c>
@@ -35412,7 +35412,7 @@
         <v>95.401802062988281</v>
       </c>
     </row>
-    <row r="7" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>91</v>
       </c>
@@ -35552,7 +35552,7 @@
         <v>91.482589721679688</v>
       </c>
     </row>
-    <row r="8" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>92</v>
       </c>
@@ -35692,7 +35692,7 @@
         <v>81.993988037109375</v>
       </c>
     </row>
-    <row r="9" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>93</v>
       </c>
@@ -35832,7 +35832,7 @@
         <v>98.495918273925781</v>
       </c>
     </row>
-    <row r="10" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>94</v>
       </c>
@@ -35972,7 +35972,7 @@
         <v>92.720237731933594</v>
       </c>
     </row>
-    <row r="11" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>95</v>
       </c>
@@ -36112,7 +36112,7 @@
         <v>97.464546203613281</v>
       </c>
     </row>
-    <row r="12" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>96</v>
       </c>
@@ -36252,7 +36252,7 @@
         <v>88.801025390625</v>
       </c>
     </row>
-    <row r="13" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>97</v>
       </c>
@@ -36394,7 +36394,7 @@
         <v>84.778678894042969</v>
       </c>
     </row>
-    <row r="14" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>98</v>
       </c>
@@ -36536,7 +36536,7 @@
         <v>87.253982543945313</v>
       </c>
     </row>
-    <row r="15" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>99</v>
       </c>
@@ -36678,7 +36678,7 @@
         <v>93.029647827148438</v>
       </c>
     </row>
-    <row r="16" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>100</v>
       </c>
@@ -36820,7 +36820,7 @@
         <v>94.370429992675781</v>
       </c>
     </row>
-    <row r="17" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>101</v>
       </c>
@@ -36962,7 +36962,7 @@
         <v>84.881828308105469</v>
       </c>
     </row>
-    <row r="18" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>102</v>
       </c>
@@ -37104,7 +37104,7 @@
         <v>101.6931686401367</v>
       </c>
     </row>
-    <row r="19" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>103</v>
       </c>
@@ -37246,7 +37246,7 @@
         <v>91.173179626464844</v>
       </c>
     </row>
-    <row r="20" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>104</v>
       </c>
@@ -37388,7 +37388,7 @@
         <v>87.563385009765625</v>
       </c>
     </row>
-    <row r="21" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>105</v>
       </c>
@@ -37530,7 +37530,7 @@
         <v>102.00257873535161</v>
       </c>
     </row>
-    <row r="22" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
         <v>106</v>
       </c>
@@ -37672,7 +37672,7 @@
         <v>95.401802062988281</v>
       </c>
     </row>
-    <row r="23" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>107</v>
       </c>
@@ -37814,7 +37814,7 @@
         <v>104.7872772216797</v>
       </c>
     </row>
-    <row r="24" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>108</v>
       </c>
@@ -37956,7 +37956,7 @@
         <v>90.554359436035156</v>
       </c>
     </row>
-    <row r="25" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
         <v>109</v>
       </c>
@@ -38100,7 +38100,7 @@
         <v>93.648468017578125</v>
       </c>
     </row>
-    <row r="26" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
         <v>110</v>
       </c>
@@ -38244,7 +38244,7 @@
         <v>91.585731506347656</v>
       </c>
     </row>
-    <row r="27" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
         <v>111</v>
       </c>
@@ -38388,7 +38388,7 @@
         <v>107.4688415527344</v>
       </c>
     </row>
-    <row r="28" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
         <v>112</v>
       </c>
@@ -38532,7 +38532,7 @@
         <v>90.554359436035156</v>
       </c>
     </row>
-    <row r="29" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>113</v>
       </c>
@@ -38676,7 +38676,7 @@
         <v>100.7649307250977</v>
       </c>
     </row>
-    <row r="30" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
         <v>114</v>
       </c>
@@ -38820,7 +38820,7 @@
         <v>101.89943695068359</v>
       </c>
     </row>
-    <row r="31" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
         <v>115</v>
       </c>
@@ -38964,7 +38964,7 @@
         <v>96.020622253417969</v>
       </c>
     </row>
-    <row r="32" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
         <v>116</v>
       </c>
@@ -39108,7 +39108,7 @@
         <v>103.7559051513672</v>
       </c>
     </row>
-    <row r="33" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>117</v>
       </c>
@@ -39252,7 +39252,7 @@
         <v>105.0966873168945</v>
       </c>
     </row>
-    <row r="34" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
         <v>118</v>
       </c>
@@ -39396,7 +39396,7 @@
         <v>107.5719757080078</v>
       </c>
     </row>
-    <row r="35" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A35" s="7" t="s">
         <v>119</v>
       </c>
@@ -39540,7 +39540,7 @@
         <v>115.20412445068359</v>
       </c>
     </row>
-    <row r="36" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A36" s="7" t="s">
         <v>120</v>
       </c>
@@ -39684,7 +39684,7 @@
         <v>94.164154052734375</v>
       </c>
     </row>
-    <row r="37" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
         <v>121</v>
       </c>
@@ -39830,7 +39830,7 @@
         <v>103.5496292114258</v>
       </c>
     </row>
-    <row r="38" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A38" s="7" t="s">
         <v>122</v>
       </c>
@@ -39976,7 +39976,7 @@
         <v>101.7963027954102</v>
       </c>
     </row>
-    <row r="39" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A39" s="7" t="s">
         <v>123</v>
       </c>
@@ -40122,7 +40122,7 @@
         <v>114.9978485107422</v>
       </c>
     </row>
-    <row r="40" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A40" s="7" t="s">
         <v>124</v>
       </c>
@@ -40268,7 +40268,7 @@
         <v>99.733558654785156</v>
       </c>
     </row>
-    <row r="41" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A41" s="7" t="s">
         <v>125</v>
       </c>
@@ -40414,7 +40414,7 @@
         <v>103.5496292114258</v>
       </c>
     </row>
-    <row r="42" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A42" s="7" t="s">
         <v>126</v>
       </c>
@@ -40560,7 +40560,7 @@
         <v>107.262565612793</v>
       </c>
     </row>
-    <row r="43" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
         <v>127</v>
       </c>
@@ -40706,7 +40706,7 @@
         <v>110.0472717285156</v>
       </c>
     </row>
-    <row r="44" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A44" s="7" t="s">
         <v>128</v>
       </c>
@@ -40852,7 +40852,7 @@
         <v>105.0966873168945</v>
       </c>
     </row>
-    <row r="45" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
         <v>129</v>
       </c>
@@ -40998,7 +40998,7 @@
         <v>108.9127578735352</v>
       </c>
     </row>
-    <row r="46" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
         <v>130</v>
       </c>
@@ -41144,7 +41144,7 @@
         <v>117.1637268066406</v>
       </c>
     </row>
-    <row r="47" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A47" s="7" t="s">
         <v>131</v>
       </c>
@@ -41290,7 +41290,7 @@
         <v>117.0605926513672</v>
       </c>
     </row>
-    <row r="48" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A48" s="7" t="s">
         <v>132</v>
       </c>
@@ -41436,7 +41436,7 @@
         <v>92.204551696777344</v>
       </c>
     </row>
-    <row r="49" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A49" s="7" t="s">
         <v>133</v>
       </c>
@@ -41582,7 +41582,7 @@
         <v>108.39707946777339</v>
       </c>
     </row>
-    <row r="50" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A50" s="7" t="s">
         <v>134</v>
       </c>
@@ -41728,7 +41728,7 @@
         <v>112.4194259643555</v>
       </c>
     </row>
-    <row r="51" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A51" s="7" t="s">
         <v>135</v>
       </c>
@@ -41874,7 +41874,7 @@
         <v>107.1594314575195</v>
       </c>
     </row>
-    <row r="52" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A52" s="7" t="s">
         <v>136</v>
       </c>
@@ -42020,7 +42020,7 @@
         <v>120.4641189575195</v>
       </c>
     </row>
-    <row r="53" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A53" s="7" t="s">
         <v>137</v>
       </c>
@@ -42166,7 +42166,7 @@
         <v>104.99355316162109</v>
       </c>
     </row>
-    <row r="54" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A54" s="7" t="s">
         <v>138</v>
       </c>
@@ -42312,7 +42312,7 @@
         <v>116.7511825561523</v>
       </c>
     </row>
-    <row r="55" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A55" s="7" t="s">
         <v>139</v>
       </c>
@@ -42458,7 +42458,7 @@
         <v>115.7198104858398</v>
       </c>
     </row>
-    <row r="56" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A56" s="7" t="s">
         <v>140</v>
       </c>
@@ -42604,7 +42604,7 @@
         <v>100.55865478515631</v>
       </c>
     </row>
-    <row r="57" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A57" s="7" t="s">
         <v>141</v>
       </c>
@@ -42750,7 +42750,7 @@
         <v>118.0919647216797</v>
       </c>
     </row>
-    <row r="58" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A58" s="7" t="s">
         <v>142</v>
       </c>
@@ -42896,7 +42896,7 @@
         <v>112.3162841796875</v>
       </c>
     </row>
-    <row r="59" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A59" s="7" t="s">
         <v>143</v>
       </c>
@@ -43042,7 +43042,7 @@
         <v>101.6931686401367</v>
       </c>
     </row>
-    <row r="60" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A60" s="7" t="s">
         <v>144</v>
       </c>
@@ -43188,7 +43188,7 @@
         <v>81.787712097167969</v>
       </c>
     </row>
-    <row r="61" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A61" s="7" t="s">
         <v>145</v>
       </c>
@@ -43334,7 +43334,7 @@
         <v>79.828109741210938</v>
       </c>
     </row>
-    <row r="62" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A62" s="7" t="s">
         <v>146</v>
       </c>
@@ -43480,7 +43480,7 @@
         <v>80.653205871582031</v>
       </c>
     </row>
-    <row r="63" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A63" s="7" t="s">
         <v>147</v>
       </c>
@@ -43626,7 +43626,7 @@
         <v>89.729263305664063</v>
       </c>
     </row>
-    <row r="64" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A64" s="7" t="s">
         <v>148</v>
       </c>
@@ -43772,7 +43772,7 @@
         <v>78.590461730957031</v>
       </c>
     </row>
-    <row r="65" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A65" s="7" t="s">
         <v>149</v>
       </c>
@@ -43918,7 +43918,7 @@
         <v>76.424583435058594</v>
       </c>
     </row>
-    <row r="66" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A66" s="7" t="s">
         <v>150</v>
       </c>
@@ -44064,7 +44064,7 @@
         <v>82.922218322753906</v>
       </c>
     </row>
-    <row r="67" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A67" s="7" t="s">
         <v>151</v>
       </c>
@@ -44210,7 +44210,7 @@
         <v>87.666519165039063</v>
       </c>
     </row>
-    <row r="68" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A68" s="7" t="s">
         <v>152</v>
       </c>
@@ -44356,7 +44356,7 @@
         <v>77.455955505371094</v>
       </c>
     </row>
-    <row r="69" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A69" s="7" t="s">
         <v>153</v>
       </c>
@@ -44502,7 +44502,7 @@
         <v>94.782981872558594</v>
       </c>
     </row>
-    <row r="70" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A70" s="7" t="s">
         <v>154</v>
       </c>
@@ -44648,7 +44648,7 @@
         <v>96.330032348632813</v>
       </c>
     </row>
-    <row r="71" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A71" s="7" t="s">
         <v>155</v>
       </c>
@@ -44794,7 +44794,7 @@
         <v>94.989250183105469</v>
       </c>
     </row>
-    <row r="72" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A72" s="7" t="s">
         <v>156</v>
       </c>
@@ -44940,7 +44940,7 @@
         <v>81.065757751464844</v>
       </c>
     </row>
-    <row r="73" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A73" s="7" t="s">
         <v>157</v>
       </c>
@@ -45086,7 +45086,7 @@
         <v>79.312423706054688</v>
       </c>
     </row>
-    <row r="74" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A74" s="7" t="s">
         <v>158</v>
       </c>
@@ -45232,7 +45232,7 @@
         <v>86.841423034667969</v>
       </c>
     </row>
-    <row r="75" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A75" s="7" t="s">
         <v>159</v>
       </c>
@@ -45378,7 +45378,7 @@
         <v>103.34336090087891</v>
       </c>
     </row>
-    <row r="76" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A76" s="7" t="s">
         <v>160</v>
       </c>
@@ -45524,7 +45524,7 @@
         <v>93.751609802246094</v>
       </c>
     </row>
-    <row r="77" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A77" s="7" t="s">
         <v>161</v>
       </c>
@@ -45670,7 +45670,7 @@
         <v>94.370429992675781</v>
       </c>
     </row>
-    <row r="78" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A78" s="7" t="s">
         <v>162</v>
       </c>
@@ -45816,7 +45816,7 @@
         <v>107.05629730224609</v>
       </c>
     </row>
-    <row r="79" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A79" s="7" t="s">
         <v>163</v>
       </c>
@@ -45962,7 +45962,7 @@
         <v>103.8590469360352</v>
       </c>
     </row>
-    <row r="80" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A80" s="7" t="s">
         <v>164</v>
       </c>
@@ -46108,7 +46108,7 @@
         <v>98.805328369140625</v>
       </c>
     </row>
-    <row r="81" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A81" s="7" t="s">
         <v>165</v>
       </c>
@@ -46254,7 +46254,7 @@
         <v>112.7288360595703</v>
       </c>
     </row>
-    <row r="82" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A82" s="7" t="s">
         <v>166</v>
       </c>
@@ -46400,7 +46400,7 @@
         <v>110.15040588378911</v>
       </c>
     </row>
-    <row r="83" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A83" s="7" t="s">
         <v>167</v>
       </c>
@@ -46546,7 +46546,7 @@
         <v>112.21315002441411</v>
       </c>
     </row>
-    <row r="84" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A84" s="7" t="s">
         <v>168</v>
       </c>
@@ -46692,7 +46692,7 @@
         <v>97.567680358886719</v>
       </c>
     </row>
-    <row r="85" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A85" s="7" t="s">
         <v>169</v>
       </c>
@@ -46838,7 +46838,7 @@
         <v>96.639450073242188</v>
       </c>
     </row>
-    <row r="86" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A86" s="7" t="s">
         <v>170</v>
       </c>
@@ -46984,7 +46984,7 @@
         <v>102.00257873535161</v>
       </c>
     </row>
-    <row r="87" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A87" s="7" t="s">
         <v>171</v>
       </c>
@@ -47130,7 +47130,7 @@
         <v>117.9888229370117</v>
       </c>
     </row>
-    <row r="88" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A88" s="7" t="s">
         <v>172</v>
       </c>
@@ -47276,7 +47276,7 @@
         <v>100.97120666503911</v>
       </c>
     </row>
-    <row r="89" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A89" s="7" t="s">
         <v>173</v>
       </c>
@@ -47422,7 +47422,7 @@
         <v>116.0292205810547</v>
       </c>
     </row>
-    <row r="90" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A90" s="7" t="s">
         <v>174</v>
       </c>
@@ -47568,7 +47568,7 @@
         <v>104.8904113769531</v>
       </c>
     </row>
-    <row r="91" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A91" s="7" t="s">
         <v>175</v>
       </c>
@@ -47714,7 +47714,7 @@
         <v>108.2939376831055</v>
       </c>
     </row>
-    <row r="92" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A92" s="7" t="s">
         <v>176</v>
       </c>
@@ -47860,7 +47860,7 @@
         <v>111.18177795410161</v>
       </c>
     </row>
-    <row r="93" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A93" s="7" t="s">
         <v>177</v>
       </c>
@@ -48006,7 +48006,7 @@
         <v>118.7107849121094</v>
       </c>
     </row>
-    <row r="94" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A94" s="7" t="s">
         <v>178</v>
       </c>
@@ -48152,7 +48152,7 @@
         <v>107.8813934326172</v>
       </c>
     </row>
-    <row r="95" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A95" s="7" t="s">
         <v>179</v>
       </c>
@@ -48298,7 +48298,7 @@
         <v>117.4731369018555</v>
       </c>
     </row>
-    <row r="96" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A96" s="7" t="s">
         <v>180</v>
       </c>
@@ -48444,7 +48444,7 @@
         <v>100.7649307250977</v>
       </c>
     </row>
-    <row r="97" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A97" s="7" t="s">
         <v>181</v>
       </c>
@@ -48590,7 +48590,7 @@
         <v>101.89943695068359</v>
       </c>
     </row>
-    <row r="98" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A98" s="7" t="s">
         <v>182</v>
       </c>
@@ -48736,7 +48736,7 @@
         <v>105.6123733520508</v>
       </c>
     </row>
-    <row r="99" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A99" s="7" t="s">
         <v>183</v>
       </c>
@@ -48882,7 +48882,7 @@
         <v>114.48216247558589</v>
       </c>
     </row>
-    <row r="100" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A100" s="7" t="s">
         <v>184</v>
       </c>
@@ -49028,7 +49028,7 @@
         <v>98.599052429199219</v>
       </c>
     </row>
-    <row r="101" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A101" s="7" t="s">
         <v>185</v>
       </c>
@@ -49174,7 +49174,7 @@
         <v>104.8904113769531</v>
       </c>
     </row>
-    <row r="102" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A102" s="7" t="s">
         <v>186</v>
       </c>
@@ -49320,7 +49320,7 @@
         <v>108.8096237182617</v>
       </c>
     </row>
-    <row r="103" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A103" s="7" t="s">
         <v>187</v>
       </c>
@@ -49466,7 +49466,7 @@
         <v>108.39707946777339</v>
       </c>
     </row>
-    <row r="104" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A104" s="7" t="s">
         <v>188</v>
       </c>
@@ -49612,7 +49612,7 @@
         <v>106.9531555175781</v>
       </c>
     </row>
-    <row r="105" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A105" s="7" t="s">
         <v>189</v>
       </c>
@@ -49758,7 +49758,7 @@
         <v>106.33433532714839</v>
       </c>
     </row>
-    <row r="106" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A106" s="7" t="s">
         <v>190</v>
       </c>
@@ -49904,7 +49904,7 @@
         <v>110.2535400390625</v>
       </c>
     </row>
-    <row r="107" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A107" s="7" t="s">
         <v>191</v>
       </c>
@@ -50050,7 +50050,7 @@
         <v>110.2535400390625</v>
       </c>
     </row>
-    <row r="108" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A108" s="7" t="s">
         <v>192</v>
       </c>
@@ -50196,7 +50196,7 @@
         <v>83.541046142578125</v>
       </c>
     </row>
-    <row r="109" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A109" s="7" t="s">
         <v>193</v>
       </c>
@@ -50342,7 +50342,7 @@
         <v>100.146110534668</v>
       </c>
     </row>
-    <row r="110" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A110" s="7" t="s">
         <v>194</v>
       </c>
@@ -50488,7 +50488,7 @@
         <v>96.948860168457031</v>
       </c>
     </row>
-    <row r="111" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A111" s="7" t="s">
         <v>195</v>
       </c>
@@ -50634,7 +50634,7 @@
         <v>101.1774826049805</v>
       </c>
     </row>
-    <row r="112" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A112" s="7" t="s">
         <v>196</v>
       </c>
@@ -50780,7 +50780,7 @@
         <v>104.065315246582</v>
       </c>
     </row>
-    <row r="113" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A113" s="7" t="s">
         <v>197</v>
       </c>
@@ -50926,7 +50926,7 @@
         <v>97.361404418945313</v>
       </c>
     </row>
-    <row r="114" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A114" s="7" t="s">
         <v>198</v>
       </c>
@@ -51072,7 +51072,7 @@
         <v>104.4778671264648</v>
       </c>
     </row>
-    <row r="115" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A115" s="7" t="s">
         <v>199</v>
       </c>
@@ -51218,7 +51218,7 @@
         <v>107.36570739746089</v>
       </c>
     </row>
-    <row r="116" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A116" s="7" t="s">
         <v>200</v>
       </c>
@@ -51364,7 +51364,7 @@
         <v>97.980232238769531</v>
       </c>
     </row>
-    <row r="117" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A117" s="7" t="s">
         <v>201</v>
       </c>
@@ -51510,7 +51510,7 @@
         <v>106.8500213623047</v>
       </c>
     </row>
-    <row r="118" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A118" s="7" t="s">
         <v>202</v>
       </c>
@@ -51656,7 +51656,7 @@
         <v>111.0786437988281</v>
       </c>
     </row>
-    <row r="119" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A119" s="7" t="s">
         <v>203</v>
       </c>
@@ -51802,7 +51802,7 @@
         <v>106.9531555175781</v>
       </c>
     </row>
-    <row r="120" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A120" s="7" t="s">
         <v>204</v>
       </c>
@@ -51948,7 +51948,7 @@
         <v>85.706924438476563</v>
       </c>
     </row>
-    <row r="121" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A121" s="7" t="s">
         <v>205</v>
       </c>
@@ -52094,7 +52094,7 @@
         <v>99.424148559570313</v>
       </c>
     </row>
-    <row r="122" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A122" s="7" t="s">
         <v>206</v>
       </c>
@@ -52240,7 +52240,7 @@
         <v>102.00257873535161</v>
       </c>
     </row>
-    <row r="123" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A123" s="7" t="s">
         <v>207</v>
       </c>
@@ -52386,7 +52386,7 @@
         <v>106.128059387207</v>
       </c>
     </row>
-    <row r="124" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A124" s="7" t="s">
         <v>208</v>
       </c>
@@ -52532,7 +52532,7 @@
         <v>102.62139892578131</v>
       </c>
     </row>
-    <row r="125" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A125" s="7" t="s">
         <v>209</v>
       </c>
@@ -52678,7 +52678,7 @@
         <v>100.7649307250977</v>
       </c>
     </row>
-    <row r="126" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A126" s="7" t="s">
         <v>210</v>
       </c>
@@ -52824,7 +52824,7 @@
         <v>100.3523864746094</v>
       </c>
     </row>
-    <row r="127" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A127" s="7" t="s">
         <v>211</v>
       </c>
@@ -52970,7 +52970,7 @@
         <v>110.3566818237305</v>
       </c>
     </row>
-    <row r="128" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A128" s="7" t="s">
         <v>212</v>
       </c>
@@ -53116,7 +53116,7 @@
         <v>94.576705932617188</v>
       </c>
     </row>
-    <row r="129" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A129" s="7" t="s">
         <v>213</v>
       </c>
@@ -53262,7 +53262,7 @@
         <v>113.14138031005859</v>
       </c>
     </row>
-    <row r="130" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A130" s="7" t="s">
         <v>214</v>
       </c>
@@ -53408,7 +53408,7 @@
         <v>111.284912109375</v>
       </c>
     </row>
-    <row r="131" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A131" s="7" t="s">
         <v>215</v>
       </c>
@@ -53554,7 +53554,7 @@
         <v>108.190803527832</v>
       </c>
     </row>
-    <row r="132" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A132" s="7" t="s">
         <v>216</v>
       </c>
@@ -53700,7 +53700,7 @@
         <v>93.029647827148438</v>
       </c>
     </row>
-    <row r="133" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A133" s="7" t="s">
         <v>217</v>
       </c>
@@ -53846,7 +53846,7 @@
         <v>95.298667907714844</v>
       </c>
     </row>
-    <row r="134" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A134" s="7" t="s">
         <v>218</v>
       </c>
@@ -53992,7 +53992,7 @@
         <v>99.011604309082031</v>
       </c>
     </row>
-    <row r="135" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A135" s="7" t="s">
         <v>219</v>
       </c>
@@ -54138,7 +54138,7 @@
         <v>111.388053894043</v>
       </c>
     </row>
-    <row r="136" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A136" s="7" t="s">
         <v>220</v>
       </c>
@@ -54284,7 +54284,7 @@
         <v>101.28061676025391</v>
       </c>
     </row>
-    <row r="137" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A137" s="7" t="s">
         <v>221</v>
       </c>
@@ -54430,7 +54430,7 @@
         <v>93.751609802246094</v>
       </c>
     </row>
-    <row r="138" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A138" s="7" t="s">
         <v>222</v>
       </c>
@@ -54576,7 +54576,7 @@
         <v>108.8096237182617</v>
       </c>
     </row>
-    <row r="139" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A139" s="7" t="s">
         <v>223</v>
       </c>
@@ -54722,7 +54722,7 @@
         <v>109.9441299438477</v>
       </c>
     </row>
-    <row r="140" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A140" s="7" t="s">
         <v>224</v>
       </c>
@@ -54868,7 +54868,7 @@
         <v>95.504936218261719</v>
       </c>
     </row>
-    <row r="141" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A141" s="7" t="s">
         <v>225</v>
       </c>
@@ -55014,7 +55014,7 @@
         <v>110.45981597900391</v>
       </c>
     </row>
-    <row r="142" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A142" s="7" t="s">
         <v>226</v>
       </c>
@@ -55160,7 +55160,7 @@
         <v>110.76922607421881</v>
       </c>
     </row>
-    <row r="143" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A143" s="7" t="s">
         <v>227</v>
       </c>
@@ -55306,7 +55306,7 @@
         <v>108.7064895629883</v>
       </c>
     </row>
-    <row r="144" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A144" s="7" t="s">
         <v>228</v>
       </c>
@@ -55452,7 +55452,7 @@
         <v>92.513961791992188</v>
       </c>
     </row>
-    <row r="145" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A145" s="7" t="s">
         <v>229</v>
       </c>
@@ -55598,7 +55598,7 @@
         <v>92.101417541503906</v>
       </c>
     </row>
-    <row r="146" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A146" s="7" t="s">
         <v>230</v>
       </c>
@@ -55744,7 +55744,7 @@
         <v>103.8590469360352</v>
       </c>
     </row>
-    <row r="147" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A147" s="7" t="s">
         <v>231</v>
       </c>
@@ -55890,7 +55890,7 @@
         <v>106.7468795776367</v>
       </c>
     </row>
-    <row r="148" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A148" s="7" t="s">
         <v>232</v>
       </c>
@@ -56036,7 +56036,7 @@
         <v>107.05629730224609</v>
       </c>
     </row>
-    <row r="149" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A149" s="7" t="s">
         <v>233</v>
       </c>
@@ -56182,7 +56182,7 @@
         <v>96.742584228515625</v>
       </c>
     </row>
-    <row r="150" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A150" s="7" t="s">
         <v>234</v>
       </c>
@@ -56328,7 +56328,7 @@
         <v>112.9351043701172</v>
       </c>
     </row>
-    <row r="151" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A151" s="7" t="s">
         <v>235</v>
       </c>
@@ -56474,7 +56474,7 @@
         <v>101.28061676025391</v>
       </c>
     </row>
-    <row r="152" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A152" s="7" t="s">
         <v>236</v>
       </c>
@@ -56620,7 +56620,7 @@
         <v>104.37473297119141</v>
       </c>
     </row>
-    <row r="153" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A153" s="7" t="s">
         <v>237</v>
       </c>
@@ -56766,7 +56766,7 @@
         <v>113.34765625</v>
       </c>
     </row>
-    <row r="154" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A154" s="7" t="s">
         <v>238</v>
       </c>
@@ -56912,7 +56912,7 @@
         <v>102.31198883056641</v>
       </c>
     </row>
-    <row r="155" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A155" s="7" t="s">
         <v>239</v>
       </c>
@@ -57058,7 +57058,7 @@
         <v>113.45079040527339</v>
       </c>
     </row>
-    <row r="156" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A156" s="7" t="s">
         <v>240</v>
       </c>
@@ -57204,7 +57204,7 @@
         <v>96.536308288574219</v>
       </c>
     </row>
-    <row r="157" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A157" s="7" t="s">
         <v>241</v>
       </c>
@@ -57350,7 +57350,7 @@
         <v>101.6931686401367</v>
       </c>
     </row>
-    <row r="158" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A158" s="7" t="s">
         <v>242</v>
       </c>
@@ -57496,7 +57496,7 @@
         <v>102.5182647705078</v>
       </c>
     </row>
-    <row r="159" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A159" s="7" t="s">
         <v>243</v>
       </c>
@@ -57642,7 +57642,7 @@
         <v>120.2578430175781</v>
       </c>
     </row>
-    <row r="160" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A160" s="7" t="s">
         <v>244</v>
       </c>
@@ -57788,7 +57788,7 @@
         <v>98.702186584472656</v>
       </c>
     </row>
-    <row r="161" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A161" s="7" t="s">
         <v>245</v>
       </c>
@@ -57934,7 +57934,7 @@
         <v>110.5629577636719</v>
       </c>
     </row>
-    <row r="162" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A162" s="7" t="s">
         <v>246</v>
       </c>
@@ -58080,7 +58080,7 @@
         <v>109.42844390869141</v>
       </c>
     </row>
-    <row r="163" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A163" s="7" t="s">
         <v>247</v>
       </c>
@@ -58226,7 +58226,7 @@
         <v>107.8813934326172</v>
       </c>
     </row>
-    <row r="164" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A164" s="7" t="s">
         <v>248</v>
       </c>
@@ -58372,7 +58372,7 @@
         <v>110.8723678588867</v>
       </c>
     </row>
-    <row r="165" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A165" s="7" t="s">
         <v>249</v>
       </c>
@@ -58518,7 +58518,7 @@
         <v>115.8229446411133</v>
       </c>
     </row>
-    <row r="166" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A166" s="7" t="s">
         <v>250</v>
       </c>
@@ -58664,7 +58664,7 @@
         <v>106.9531555175781</v>
       </c>
     </row>
-    <row r="167" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A167" s="7" t="s">
         <v>251</v>
       </c>
@@ -58810,7 +58810,7 @@
         <v>121.4954833984375</v>
       </c>
     </row>
-    <row r="168" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A168" s="7" t="s">
         <v>252</v>
       </c>
@@ -58956,7 +58956,7 @@
         <v>98.599052429199219</v>
       </c>
     </row>
-    <row r="169" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A169" s="7" t="s">
         <v>253</v>
       </c>
@@ -59102,7 +59102,7 @@
         <v>110.3566818237305</v>
       </c>
     </row>
-    <row r="170" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A170" s="7" t="s">
         <v>254</v>
       </c>
@@ -59248,7 +59248,7 @@
         <v>107.262565612793</v>
       </c>
     </row>
-    <row r="171" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A171" s="7" t="s">
         <v>255</v>
       </c>
@@ -59394,7 +59394,7 @@
         <v>117.0605926513672</v>
       </c>
     </row>
-    <row r="172" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A172" s="7" t="s">
         <v>256</v>
       </c>
@@ -59540,7 +59540,7 @@
         <v>108.7064895629883</v>
       </c>
     </row>
-    <row r="173" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A173" s="7" t="s">
         <v>257</v>
       </c>
@@ -59686,7 +59686,7 @@
         <v>106.7468795776367</v>
       </c>
     </row>
-    <row r="174" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A174" s="7" t="s">
         <v>258</v>
       </c>
@@ -59832,7 +59832,7 @@
         <v>116.7511825561523</v>
       </c>
     </row>
-    <row r="175" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A175" s="7" t="s">
         <v>259</v>
       </c>
@@ -59978,7 +59978,7 @@
         <v>111.18177795410161</v>
       </c>
     </row>
-    <row r="176" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A176" s="7" t="s">
         <v>260</v>
       </c>
@@ -60124,7 +60124,7 @@
         <v>111.284912109375</v>
       </c>
     </row>
-    <row r="177" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A177" s="7" t="s">
         <v>261</v>
       </c>
@@ -60270,7 +60270,7 @@
         <v>110.8723678588867</v>
       </c>
     </row>
-    <row r="178" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A178" s="7" t="s">
         <v>262</v>
       </c>
@@ -60416,7 +60416,7 @@
         <v>118.29823303222661</v>
       </c>
     </row>
-    <row r="179" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A179" s="7" t="s">
         <v>263</v>
       </c>
@@ -60562,7 +60562,7 @@
         <v>117.1637268066406</v>
       </c>
     </row>
-    <row r="180" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A180" s="7" t="s">
         <v>264</v>
       </c>
@@ -60708,7 +60708,7 @@
         <v>89.626121520996094</v>
       </c>
     </row>
-    <row r="181" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A181" s="7" t="s">
         <v>265</v>
       </c>
@@ -60854,7 +60854,7 @@
         <v>105.4060974121094</v>
       </c>
     </row>
-    <row r="182" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A182" s="7" t="s">
         <v>266</v>
       </c>
@@ -61000,7 +61000,7 @@
         <v>103.65277099609381</v>
       </c>
     </row>
-    <row r="183" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A183" s="7" t="s">
         <v>267</v>
       </c>
@@ -61146,7 +61146,7 @@
         <v>111.388053894043</v>
       </c>
     </row>
-    <row r="184" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A184" s="7" t="s">
         <v>268</v>
       </c>
@@ -61292,7 +61292,7 @@
         <v>102.5182647705078</v>
       </c>
     </row>
-    <row r="185" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A185" s="7" t="s">
         <v>269</v>
       </c>
@@ -61438,7 +61438,7 @@
         <v>107.4688415527344</v>
       </c>
     </row>
-    <row r="186" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A186" s="7" t="s">
         <v>270</v>
       </c>
@@ -61584,7 +61584,7 @@
         <v>95.814353942871094</v>
       </c>
     </row>
-    <row r="187" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A187" s="7" t="s">
         <v>271</v>
       </c>
@@ -61730,7 +61730,7 @@
         <v>107.6751174926758</v>
       </c>
     </row>
-    <row r="188" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A188" s="7" t="s">
         <v>272</v>
       </c>
@@ -61876,7 +61876,7 @@
         <v>98.702186584472656</v>
       </c>
     </row>
-    <row r="189" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A189" s="7" t="s">
         <v>273</v>
       </c>
@@ -62022,7 +62022,7 @@
         <v>107.5719757080078</v>
       </c>
     </row>
-    <row r="190" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A190" s="7" t="s">
         <v>274</v>
       </c>
@@ -62168,7 +62168,7 @@
         <v>109.11903381347661</v>
       </c>
     </row>
-    <row r="191" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A191" s="7" t="s">
         <v>275</v>
       </c>
@@ -62314,7 +62314,7 @@
         <v>106.33433532714839</v>
       </c>
     </row>
-    <row r="192" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A192" s="7" t="s">
         <v>276</v>
       </c>
@@ -62460,7 +62460,7 @@
         <v>82.819084167480469</v>
       </c>
     </row>
-    <row r="193" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A193" s="7" t="s">
         <v>277</v>
       </c>
@@ -62606,7 +62606,7 @@
         <v>99.836700439453125</v>
       </c>
     </row>
-    <row r="194" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A194" s="7" t="s">
         <v>278</v>
       </c>
@@ -62752,7 +62752,7 @@
         <v>101.1774826049805</v>
       </c>
     </row>
-    <row r="195" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A195" s="7" t="s">
         <v>279</v>
       </c>
@@ -62898,7 +62898,7 @@
         <v>104.99355316162109</v>
       </c>
     </row>
-    <row r="196" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A196" s="7" t="s">
         <v>280</v>
       </c>
@@ -63044,7 +63044,7 @@
         <v>81.065757751464844</v>
       </c>
     </row>
-    <row r="197" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A197" s="7" t="s">
         <v>281</v>
       </c>
@@ -63190,7 +63190,7 @@
         <v>82.819084167480469</v>
       </c>
     </row>
-    <row r="198" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A198" s="7" t="s">
         <v>282</v>
       </c>
@@ -63336,7 +63336,7 @@
         <v>90.966903686523438</v>
       </c>
     </row>
-    <row r="199" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A199" s="7" t="s">
         <v>283</v>
       </c>
@@ -63482,7 +63482,7 @@
         <v>96.639450073242188</v>
       </c>
     </row>
-    <row r="200" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A200" s="7" t="s">
         <v>284</v>
       </c>
@@ -63628,7 +63628,7 @@
         <v>87.975929260253906</v>
       </c>
     </row>
-    <row r="201" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A201" s="7" t="s">
         <v>285</v>
       </c>
@@ -63774,7 +63774,7 @@
         <v>104.68414306640631</v>
       </c>
     </row>
-    <row r="202" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A202" s="7" t="s">
         <v>286</v>
       </c>
@@ -63920,7 +63920,7 @@
         <v>107.05629730224609</v>
       </c>
     </row>
-    <row r="203" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A203" s="7" t="s">
         <v>287</v>
       </c>
@@ -64062,7 +64062,7 @@
         <v>108.08766174316411</v>
       </c>
     </row>
-    <row r="204" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A204" s="7" t="s">
         <v>288</v>
       </c>
@@ -64204,7 +64204,7 @@
         <v>91.276321411132813</v>
       </c>
     </row>
-    <row r="205" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A205" s="7" t="s">
         <v>289</v>
       </c>
@@ -64346,7 +64346,7 @@
         <v>93.339057922363281</v>
       </c>
     </row>
-    <row r="206" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A206" s="7" t="s">
         <v>290</v>
       </c>
@@ -64488,7 +64488,7 @@
         <v>103.4464950561523</v>
       </c>
     </row>
-    <row r="207" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A207" s="7" t="s">
         <v>291</v>
       </c>
@@ -64630,7 +64630,7 @@
         <v>119.8452911376953</v>
       </c>
     </row>
-    <row r="208" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A208" s="7" t="s">
         <v>292</v>
       </c>
@@ -64772,7 +64772,7 @@
         <v>105.5092391967773</v>
       </c>
     </row>
-    <row r="209" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A209" s="7" t="s">
         <v>293</v>
       </c>
@@ -64914,7 +64914,7 @@
         <v>100.6617965698242</v>
       </c>
     </row>
-    <row r="210" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A210" s="7" t="s">
         <v>294</v>
       </c>
@@ -65056,7 +65056,7 @@
         <v>112.52256011962891</v>
       </c>
     </row>
-    <row r="211" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A211" s="7" t="s">
         <v>295</v>
       </c>
@@ -65198,7 +65198,7 @@
         <v>107.7782516479492</v>
       </c>
     </row>
-    <row r="212" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A212" s="7" t="s">
         <v>296</v>
       </c>
@@ -65340,7 +65340,7 @@
         <v>103.4464950561523</v>
       </c>
     </row>
-    <row r="213" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A213" s="7" t="s">
         <v>297</v>
       </c>
@@ -65482,7 +65482,7 @@
         <v>111.6974639892578</v>
       </c>
     </row>
-    <row r="214" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A214" s="7" t="s">
         <v>298</v>
       </c>
@@ -65624,7 +65624,7 @@
         <v>106.2311935424805</v>
       </c>
     </row>
-    <row r="215" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A215" s="7" t="s">
         <v>299</v>
       </c>
@@ -65766,7 +65766,7 @@
         <v>110.0472717285156</v>
       </c>
     </row>
-    <row r="216" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A216" s="7" t="s">
         <v>300</v>
       </c>
@@ -65908,7 +65908,7 @@
         <v>97.773956298828125</v>
       </c>
     </row>
-    <row r="217" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A217" s="7" t="s">
         <v>301</v>
       </c>
@@ -66050,7 +66050,7 @@
         <v>98.599052429199219</v>
       </c>
     </row>
-    <row r="218" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A218" s="7" t="s">
         <v>302</v>
       </c>
@@ -66192,7 +66192,7 @@
         <v>106.128059387207</v>
       </c>
     </row>
-    <row r="219" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A219" s="7" t="s">
         <v>303</v>
       </c>
@@ -66334,7 +66334,7 @@
         <v>119.9484329223633</v>
       </c>
     </row>
-    <row r="220" spans="1:48" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A220" s="7" t="s">
         <v>304</v>
       </c>
@@ -66466,26 +66466,24 @@
         <v>101.0743408203125</v>
       </c>
     </row>
-    <row r="221" spans="1:48" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="222" spans="1:48" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66680,18 +66678,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4000868-38F1-43A5-8DAC-CB1B1C7927E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{057B35CE-0E12-4B9B-9BBA-F830F80CE5FA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{057B35CE-0E12-4B9B-9BBA-F830F80CE5FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4000868-38F1-43A5-8DAC-CB1B1C7927E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data/Case2_Market data.xlsx
+++ b/Data/Case2_Market data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marga\OneDrive - Nova SBE\Documents\NOVA IMS\2nd Semester\Business Cases\Cases\Case 2\Case-2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5F05CA-EFBF-4FB6-84F8-B3647038FF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769CFFE6-2505-4650-B18D-CACC2DE6FCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="15705" windowHeight="11647" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original Values" sheetId="1" r:id="rId1"/>
@@ -1473,8 +1473,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:AZ222"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -34557,8 +34557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969BFC7C-242E-4CA7-BCFA-63115B812E44}">
   <dimension ref="A1:AZ221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -66620,18 +66620,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66826,18 +66826,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4000868-38F1-43A5-8DAC-CB1B1C7927E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{057B35CE-0E12-4B9B-9BBA-F830F80CE5FA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{057B35CE-0E12-4B9B-9BBA-F830F80CE5FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4000868-38F1-43A5-8DAC-CB1B1C7927E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
